--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Inflearn</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>41. 운영체제 공룡책 강의</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -466,17 +469,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -503,10 +506,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -745,12 +748,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1027,7 +1030,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1054,10 +1057,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1849,8 +1852,12 @@
         <v>36</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Inflearn</t>
   </si>
@@ -61,12 +61,18 @@
     <t>섹션 14</t>
   </si>
   <si>
+    <t>섹션 15</t>
+  </si>
+  <si>
     <t>01. 김영한의 자바 입문 - 코드로 시작하는 자바 첫걸음</t>
   </si>
   <si>
     <t>02. 김영한의 실전 자바 - 기본편</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>03. 김영한의 실전 자바 - 중급 1편</t>
   </si>
   <si>
@@ -121,10 +127,7 @@
     <t>31. [2024] 한입 크기로 잘라 먹는 리액트(React.js) : 기초부터 실전까지</t>
   </si>
   <si>
-    <t>41. 운영체제 공룡책 강의</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>KOCW-이석복-컴퓨터네트워크</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +250,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1362,14 +1368,16 @@
       <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1386,18 +1394,22 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1410,14 +1422,14 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1434,14 +1446,14 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1458,14 +1470,14 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1482,14 +1494,14 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
     <row r="7" ht="25" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1506,14 +1518,14 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
     <row r="8" ht="25" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1530,14 +1542,14 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
     <row r="9" ht="25" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1554,14 +1566,14 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
     <row r="10" ht="25" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1578,14 +1590,14 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
     <row r="11" ht="25" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1602,14 +1614,14 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
     <row r="12" ht="25" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1626,14 +1638,14 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1650,14 +1662,14 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1674,14 +1686,14 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
     <row r="15" ht="25" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1698,14 +1710,14 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1722,14 +1734,14 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1746,14 +1758,14 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="3"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1770,14 +1782,14 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1794,14 +1806,14 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1818,14 +1830,14 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="3"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1842,23 +1854,25 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1870,8 +1884,8 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -1504,15 +1504,33 @@
         <v>23</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="C7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -1570,16 +1570,36 @@
         <v>25</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -1546,10 +1546,18 @@
         <v>24</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -152,12 +152,6 @@
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,43 +191,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,19 +207,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -276,7 +228,6 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1308,15 +1259,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1667" defaultRowHeight="25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="71.1719" style="1" customWidth="1"/>
-    <col min="2" max="20" width="11.1719" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.1719" style="1" customWidth="1"/>
+    <col min="2" max="17" width="11.1719" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.1719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -1371,139 +1322,121 @@
       <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s" s="2">
         <v>19</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" ht="25" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s" s="2">
         <v>19</v>
       </c>
@@ -1531,21 +1464,18 @@
       <c r="K7" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" ht="25" customHeight="1">
       <c r="A8" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s" s="2">
         <v>19</v>
       </c>
@@ -1558,26 +1488,27 @@
       <c r="F8" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="G8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" ht="25" customHeight="1">
       <c r="A9" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s" s="2">
         <v>19</v>
       </c>
@@ -1608,308 +1539,269 @@
       <c r="L9" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" ht="25" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" ht="25" customHeight="1">
       <c r="A11" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" ht="25" customHeight="1">
       <c r="A12" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" ht="25" customHeight="1">
       <c r="A15" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s" s="2">
         <v>19</v>
       </c>
@@ -1919,21 +1811,18 @@
       <c r="E22" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -1355,7 +1355,9 @@
       <c r="D3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -1657,12 +1657,24 @@
         <v>31</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>

--- a/inflearn.xlsx
+++ b/inflearn.xlsx
@@ -1358,7 +1358,9 @@
       <c r="E3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
